--- a/fixture/src/main/java/domainapp/fixture/scenarios/demo/DemoFixture.xlsx
+++ b/fixture/src/main/java/domainapp/fixture/scenarios/demo/DemoFixture.xlsx
@@ -4,48 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="26835" windowHeight="13110" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="26835" windowHeight="13110"/>
   </bookViews>
   <sheets>
-    <sheet name="QuickObject" sheetId="1" r:id="rId1"/>
-    <sheet name="QuickObjectRowHandler" sheetId="4" r:id="rId2"/>
-    <sheet name="ContactRowHandler" sheetId="5" r:id="rId3"/>
+    <sheet name="ContactRowHandler" sheetId="5" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="89">
-  <si>
-    <t>Foo</t>
-  </si>
-  <si>
-    <t>Bar</t>
-  </si>
-  <si>
-    <t>Baz</t>
-  </si>
-  <si>
-    <t>FooViaRowHandler</t>
-  </si>
-  <si>
-    <t>BarViaRowHandler</t>
-  </si>
-  <si>
-    <t>BazViaRowHandler</t>
-  </si>
-  <si>
-    <t>integer</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
   <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>localDate</t>
-  </si>
-  <si>
-    <t>flag</t>
   </si>
   <si>
     <t>company</t>
@@ -289,9 +260,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -417,10 +385,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -743,154 +709,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>111</v>
-      </c>
-      <c r="C2" s="2">
-        <v>42016</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>222</v>
-      </c>
-      <c r="C3" s="2">
-        <v>42094</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>333</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>111</v>
-      </c>
-      <c r="C2" s="2">
-        <v>42016</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>222</v>
-      </c>
-      <c r="C3" s="2">
-        <v>42094</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>333</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -910,302 +728,302 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="1"/>
+      <c r="D3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="1"/>
+      <c r="D4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="3"/>
-      <c r="D3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="3"/>
-      <c r="D4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="14" t="s">
-        <v>57</v>
+        <v>22</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="12" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D8" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="12" t="s">
-        <v>61</v>
+      <c r="D8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="10" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8" t="s">
+      <c r="D12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="D13" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="E13" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="16" t="s">
+      <c r="E15" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C10" s="9"/>
-      <c r="D10" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C12" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C13" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C14" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/fixture/src/main/java/domainapp/fixture/scenarios/demo/DemoFixture.xlsx
+++ b/fixture/src/main/java/domainapp/fixture/scenarios/demo/DemoFixture.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvanderwal\src\github\incodehq\contactapp\fixture\src\main\java\domainapp\fixture\scenarios\demo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="26835" windowHeight="13110"/>
+    <workbookView xWindow="480" yWindow="132" windowWidth="26832" windowHeight="13116"/>
   </bookViews>
   <sheets>
     <sheet name="ContactRowHandler" sheetId="5" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="81">
   <si>
     <t>name</t>
   </si>
@@ -100,9 +105,6 @@
     <t>bill.smith@acmecompany.com</t>
   </si>
   <si>
-    <t>ACME HQ</t>
-  </si>
-  <si>
     <t>Bob Mills</t>
   </si>
   <si>
@@ -175,9 +177,6 @@
     <t>d.goodnew@abcdef.nl</t>
   </si>
   <si>
-    <t>ACME - 107 rue Saint Joan, 87654 Paris</t>
-  </si>
-  <si>
     <t>Clarisse Bentz</t>
   </si>
   <si>
@@ -196,9 +195,6 @@
     <t>clarisse.bentz@acmecompany.fr</t>
   </si>
   <si>
-    <t>Somewhere - Or Other - RN 22, 43214 Amiens</t>
-  </si>
-  <si>
     <t>Security-R-Us</t>
   </si>
   <si>
@@ -254,6 +250,18 @@
   </si>
   <si>
     <t>+33 6 90 90 90 90</t>
+  </si>
+  <si>
+    <t>ACME</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>Paris Office</t>
+  </si>
+  <si>
+    <t>Amiens Property</t>
   </si>
 </sst>
 </file>
@@ -418,6 +426,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -465,7 +476,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -500,7 +511,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -712,21 +723,21 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="49.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -758,13 +769,16 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
@@ -781,138 +795,148 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="1"/>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
       <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="1"/>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
       <c r="D4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="11" t="s">
         <v>42</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>43</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="F7" s="11" t="s">
         <v>46</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>47</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D8" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="F8" s="11" t="s">
         <v>50</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>51</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="6"/>
+        <v>79</v>
+      </c>
+      <c r="C9" t="s">
+        <v>77</v>
+      </c>
       <c r="D9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>56</v>
-      </c>
       <c r="F9" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C10" s="7"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>77</v>
+      </c>
       <c r="D10" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>13</v>
@@ -922,80 +946,82 @@
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="6"/>
+        <v>80</v>
+      </c>
+      <c r="C11" t="s">
+        <v>77</v>
+      </c>
       <c r="D11" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C12" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C13" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C14" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -1004,26 +1030,26 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C15" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>19</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
